--- a/18SF OKC.xlsx
+++ b/18SF OKC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luohaitian/Desktop/Win-Mac/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283C0667-7B44-CA44-939F-0D804CA639B0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -16,20 +22,20 @@
     <sheet name="20-21" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totals!$A$1:$W$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PerGame!$A$1:$U$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Advanced!$A$1:$Q$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'17-18'!$A$2:$Z$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'18-19'!$A$2:$Z$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'19-20'!$A$2:$Z$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20-21'!$A$2:$Z$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Advanced!$A$1:$Q$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PerGame!$A$1:$U$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totals!$A$1:$W$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="175">
   <si>
     <t>Season</t>
   </si>
@@ -468,20 +474,132 @@
   <si>
     <t>11.17-11.23</t>
   </si>
+  <si>
+    <t>GSW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.8-12.14</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.22-12.28</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DET</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYK</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BKN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,12 +611,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -506,6 +626,7 @@
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -513,6 +634,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -521,6 +643,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -528,334 +651,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -863,292 +679,53 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1157,62 +734,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1499,25 +1036,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.5666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="19" max="19" width="9.125"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1958,97 +1496,97 @@
       </c>
       <c r="B6">
         <f>'19-20'!B85</f>
-        <v>1180</v>
+        <v>1559</v>
       </c>
       <c r="C6">
         <f>'19-20'!C85</f>
-        <v>701</v>
+        <v>940</v>
       </c>
       <c r="D6">
         <f>'19-20'!D85</f>
-        <v>587</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <f>'19-20'!E85</f>
-        <v>34</v>
+        <v>653</v>
       </c>
       <c r="F6">
         <f>'19-20'!F85</f>
-        <v>621</v>
+        <v>824</v>
       </c>
       <c r="G6">
         <f>'19-20'!G85</f>
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="H6">
         <f>'19-20'!H85</f>
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I6">
         <f>'19-20'!I85</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <f>'19-20'!J85</f>
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K6">
         <f>'19-20'!K85</f>
-        <v>458</v>
+        <v>609</v>
       </c>
       <c r="L6">
         <f>'19-20'!L85</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M6">
         <f>'19-20'!M85</f>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <f>'19-20'!N85</f>
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="O6">
         <f>'19-20'!O85</f>
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="P6">
         <f>'19-20'!P85</f>
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <f>'19-20'!Q85</f>
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R6">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="S6" s="13">
         <f>COUNTIF('19-20'!B3:B84,"&gt;0")</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T6">
         <f>COUNTIFS('19-20'!C3:C84,"&gt;=10",'19-20'!F3:F84,"&gt;=10")+COUNTIFS('19-20'!C3:C84,"&gt;=10",'19-20'!G3:G84,"&gt;=10")+COUNTIFS('19-20'!G3:G84,"&gt;=10",'19-20'!F3:F84,"&gt;=10")-2*U6</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="U6">
         <f>COUNTIFS('19-20'!C3:C84,"&gt;=10",'19-20'!F3:F84,"&gt;=10",'19-20'!G3:G84,"&gt;=10")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V6">
         <f>'19-20'!T85</f>
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="W6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:23">
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="1:21">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -2116,83 +1654,83 @@
       </c>
       <c r="B42">
         <f>SUM(B2,B4,B6,B8,B10,B12,B14,B16,B18,B20,B22,B24,B26,B28,B30,B32,B34,B36,B38,B40)</f>
-        <v>6968</v>
+        <v>7347</v>
       </c>
       <c r="C42">
         <f t="shared" ref="C42:U42" si="0">SUM(C2,C4,C6,C8,C10,C12,C14,C16,C18,C20,C22,C24,C26,C28,C30,C32,C34,C36,C38,C40)</f>
-        <v>4156</v>
+        <v>4395</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>1362</v>
+        <v>946</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>2303</v>
+        <v>2922</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>3665</v>
+        <v>3868</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>1420</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
-        <v>1599</v>
+        <v>1692</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>2783</v>
+        <v>2934</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="O42">
         <f t="shared" si="0"/>
-        <v>957</v>
+        <v>1005</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="R42">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="S42">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -2280,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2294,7 +1832,7 @@
       </c>
       <c r="D44">
         <f>MAX('17-18'!D89,'18-19'!D89,'19-20'!D88)</f>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <f>MAX('17-18'!E89,'18-19'!E89,'19-20'!E88)</f>
@@ -2345,7 +1883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2395,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2406,7 +1944,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -2417,7 +1955,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -2425,7 +1963,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -2436,7 +1974,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2447,7 +1985,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -2458,7 +1996,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -2467,7 +2005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -2476,7 +2014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>42</v>
       </c>
@@ -2484,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2030,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -2503,7 +2041,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -2519,55 +2057,53 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W7">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:W7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular"/>
-    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff"/>
-    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular"/>
-    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff"/>
-    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular"/>
-    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff"/>
+    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="J3:K3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
     <col min="8" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="7.875" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2642,27 +2178,27 @@
       </c>
       <c r="B2" s="4">
         <f>'17-18'!B86</f>
-        <v>31.8292682926829</v>
+        <v>31.829268292682926</v>
       </c>
       <c r="C2" s="4">
         <f>'17-18'!C86</f>
-        <v>15.4756097560976</v>
+        <v>15.475609756097562</v>
       </c>
       <c r="D2" s="4">
         <f>'17-18'!D86</f>
-        <v>4.52439024390244</v>
+        <v>4.524390243902439</v>
       </c>
       <c r="E2" s="4">
         <f>'17-18'!E86</f>
-        <v>12.4146341463415</v>
+        <v>12.414634146341463</v>
       </c>
       <c r="F2" s="4">
         <f>'17-18'!F86</f>
-        <v>16.9390243902439</v>
+        <v>16.939024390243901</v>
       </c>
       <c r="G2" s="4">
         <f>'17-18'!G86</f>
-        <v>6.23170731707317</v>
+        <v>6.2317073170731705</v>
       </c>
       <c r="H2" s="4">
         <f>'17-18'!H86</f>
@@ -2670,51 +2206,51 @@
       </c>
       <c r="I2" s="4">
         <f>'17-18'!I86</f>
-        <v>0.780487804878049</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="J2" s="4">
         <f>'17-18'!J86</f>
-        <v>5.69512195121951</v>
+        <v>5.6951219512195124</v>
       </c>
       <c r="K2" s="4">
         <f>'17-18'!K86</f>
-        <v>10.780487804878</v>
+        <v>10.780487804878049</v>
       </c>
       <c r="L2" s="4">
         <f>J2/K2*100</f>
-        <v>52.8280542986427</v>
+        <v>52.828054298642535</v>
       </c>
       <c r="M2" s="4">
         <f>'17-18'!L86</f>
-        <v>0.378048780487805</v>
+        <v>0.37804878048780488</v>
       </c>
       <c r="N2" s="4">
         <f>'17-18'!M86</f>
-        <v>1.45121951219512</v>
+        <v>1.4512195121951219</v>
       </c>
       <c r="O2" s="4">
         <f>M2/N2*100</f>
-        <v>26.0504201680672</v>
+        <v>26.05042016806723</v>
       </c>
       <c r="P2" s="4">
         <f>'17-18'!N86</f>
-        <v>3.70731707317073</v>
+        <v>3.7073170731707319</v>
       </c>
       <c r="Q2" s="4">
         <f>'17-18'!O86</f>
-        <v>4.47560975609756</v>
+        <v>4.475609756097561</v>
       </c>
       <c r="R2" s="4">
         <f>P2/Q2*100</f>
-        <v>82.8337874659401</v>
+        <v>82.833787465940063</v>
       </c>
       <c r="S2" s="4">
         <f>'17-18'!P86</f>
-        <v>2.70731707317073</v>
+        <v>2.7073170731707319</v>
       </c>
       <c r="T2" s="4">
         <f>'17-18'!Q86</f>
-        <v>2.98780487804878</v>
+        <v>2.9878048780487805</v>
       </c>
       <c r="U2" t="str">
         <f>Totals!W2</f>
@@ -2767,7 +2303,7 @@
       </c>
       <c r="L3" s="4">
         <f>J3/K3*100</f>
-        <v>61.2698412698413</v>
+        <v>61.269841269841272</v>
       </c>
       <c r="M3" s="4">
         <f>'17-18'!L121</f>
@@ -2779,7 +2315,7 @@
       </c>
       <c r="O3" s="4">
         <f>M3/N3*100</f>
-        <v>42.1052631578947</v>
+        <v>42.10526315789474</v>
       </c>
       <c r="P3" s="4">
         <f>'17-18'!N121</f>
@@ -2791,7 +2327,7 @@
       </c>
       <c r="R3" s="4">
         <f>P3/Q3*100</f>
-        <v>87.0967741935484</v>
+        <v>87.096774193548384</v>
       </c>
       <c r="S3" s="4">
         <f>'17-18'!P121</f>
@@ -2799,7 +2335,7 @@
       </c>
       <c r="T3" s="4">
         <f>'17-18'!Q121</f>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U3" t="str">
         <f>Totals!W3</f>
@@ -2812,79 +2348,79 @@
       </c>
       <c r="B4" s="4">
         <f>'18-19'!B86</f>
-        <v>38.7560975609756</v>
+        <v>38.756097560975611</v>
       </c>
       <c r="C4" s="4">
         <f>'18-19'!C86</f>
-        <v>26.6585365853659</v>
+        <v>26.658536585365855</v>
       </c>
       <c r="D4" s="4">
         <f>'18-19'!D86</f>
-        <v>4.92682926829268</v>
+        <v>4.9268292682926829</v>
       </c>
       <c r="E4" s="4">
         <f>'18-19'!E86</f>
-        <v>15.2560975609756</v>
+        <v>15.25609756097561</v>
       </c>
       <c r="F4" s="4">
         <f>'18-19'!F86</f>
-        <v>20.1829268292683</v>
+        <v>20.182926829268293</v>
       </c>
       <c r="G4" s="4">
         <f>'18-19'!G86</f>
-        <v>7.76829268292683</v>
+        <v>7.7682926829268295</v>
       </c>
       <c r="H4" s="4">
         <f>'18-19'!H86</f>
-        <v>3.53658536585366</v>
+        <v>3.5365853658536586</v>
       </c>
       <c r="I4" s="4">
         <f>'18-19'!I86</f>
-        <v>1.19512195121951</v>
+        <v>1.1951219512195121</v>
       </c>
       <c r="J4" s="4">
         <f>'18-19'!J86</f>
-        <v>10.4512195121951</v>
+        <v>10.451219512195122</v>
       </c>
       <c r="K4" s="4">
         <f>'18-19'!K86</f>
-        <v>17.5731707317073</v>
+        <v>17.573170731707318</v>
       </c>
       <c r="L4" s="4">
         <f>J4/K4*100</f>
-        <v>59.472588480222</v>
+        <v>59.472588480222065</v>
       </c>
       <c r="M4" s="4">
         <f>'18-19'!L86</f>
-        <v>0.878048780487805</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="N4" s="4">
         <f>'18-19'!M86</f>
-        <v>2.30487804878049</v>
+        <v>2.3048780487804876</v>
       </c>
       <c r="O4" s="4">
         <f>M4/N4*100</f>
-        <v>38.0952380952381</v>
+        <v>38.095238095238102</v>
       </c>
       <c r="P4" s="4">
         <f>'18-19'!N86</f>
-        <v>4.8780487804878</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="Q4" s="4">
         <f>'18-19'!O86</f>
-        <v>5.48780487804878</v>
+        <v>5.4878048780487809</v>
       </c>
       <c r="R4" s="4">
         <f>P4/Q4*100</f>
-        <v>88.8888888888889</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="S4" s="4">
         <f>'18-19'!P86</f>
-        <v>3.09756097560976</v>
+        <v>3.0975609756097562</v>
       </c>
       <c r="T4" s="4">
         <f>'18-19'!Q86</f>
-        <v>3.20731707317073</v>
+        <v>3.2073170731707319</v>
       </c>
       <c r="U4" t="s">
         <v>24</v>
@@ -2896,15 +2432,15 @@
       </c>
       <c r="B5" s="4">
         <f>'18-19'!B119</f>
-        <v>40.1052631578947</v>
+        <v>40.10526315789474</v>
       </c>
       <c r="C5" s="4">
         <f>'18-19'!C119</f>
-        <v>27.1578947368421</v>
+        <v>27.157894736842106</v>
       </c>
       <c r="D5" s="4">
         <f>'18-19'!D119</f>
-        <v>4.52631578947368</v>
+        <v>4.5263157894736841</v>
       </c>
       <c r="E5" s="4">
         <f>'18-19'!E119</f>
@@ -2912,63 +2448,63 @@
       </c>
       <c r="F5" s="4">
         <f>'18-19'!F119</f>
-        <v>22.5263157894737</v>
+        <v>22.526315789473685</v>
       </c>
       <c r="G5" s="4">
         <f>'18-19'!G119</f>
-        <v>7.05263157894737</v>
+        <v>7.0526315789473681</v>
       </c>
       <c r="H5" s="4">
         <f>'18-19'!H119</f>
-        <v>5.21052631578947</v>
+        <v>5.2105263157894735</v>
       </c>
       <c r="I5" s="4">
         <f>'18-19'!I119</f>
-        <v>1.05263157894737</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="J5" s="4">
         <f>'18-19'!J119</f>
-        <v>11.2105263157895</v>
+        <v>11.210526315789474</v>
       </c>
       <c r="K5" s="4">
         <f>'18-19'!K119</f>
-        <v>18.9473684210526</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="L5" s="4">
         <f>J5/K5*100</f>
-        <v>59.1666666666669</v>
+        <v>59.166666666666679</v>
       </c>
       <c r="M5" s="4">
         <f>'18-19'!L119</f>
-        <v>0.684210526315789</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="N5" s="4">
         <f>'18-19'!M119</f>
-        <v>1.84210526315789</v>
+        <v>1.8421052631578947</v>
       </c>
       <c r="O5" s="4">
         <f>M5/N5*100</f>
-        <v>37.1428571428571</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="P5" s="4">
         <f>'18-19'!N119</f>
-        <v>4.05263157894737</v>
+        <v>4.0526315789473681</v>
       </c>
       <c r="Q5" s="4">
         <f>'18-19'!O119</f>
-        <v>4.15789473684211</v>
+        <v>4.1578947368421053</v>
       </c>
       <c r="R5" s="4">
         <f>P5/Q5*100</f>
-        <v>97.4683544303797</v>
+        <v>97.468354430379748</v>
       </c>
       <c r="S5" s="4">
         <f>'18-19'!P119</f>
-        <v>2.78947368421053</v>
+        <v>2.7894736842105261</v>
       </c>
       <c r="T5" s="4">
         <f>'18-19'!Q119</f>
-        <v>4.15789473684211</v>
+        <v>4.1578947368421053</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -2980,79 +2516,79 @@
       </c>
       <c r="B6" s="4">
         <f>'19-20'!B86</f>
-        <v>39.3333333333333</v>
+        <v>38.975000000000001</v>
       </c>
       <c r="C6" s="4">
         <f>'19-20'!C86</f>
-        <v>23.3666666666667</v>
+        <v>23.5</v>
       </c>
       <c r="D6" s="4">
         <f>'19-20'!D86</f>
-        <v>19.5666666666667</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="E6" s="4">
         <f>'19-20'!E86</f>
-        <v>1.13333333333333</v>
+        <v>16.325000000000003</v>
       </c>
       <c r="F6" s="4">
         <f>'19-20'!F86</f>
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="G6" s="4">
         <f>'19-20'!G86</f>
-        <v>6.53333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="H6" s="4">
         <f>'19-20'!H86</f>
-        <v>4.26666666666667</v>
+        <v>4.05</v>
       </c>
       <c r="I6" s="4">
         <f>'19-20'!I86</f>
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="J6" s="4">
         <f>'19-20'!J86</f>
-        <v>9.16666666666667</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K6" s="4">
         <f>'19-20'!K86</f>
-        <v>15.2666666666667</v>
+        <v>15.225</v>
       </c>
       <c r="L6" s="4">
         <f>J6/K6*100</f>
-        <v>60.0436681222707</v>
+        <v>60.426929392446624</v>
       </c>
       <c r="M6" s="4">
         <f>'19-20'!L86</f>
-        <v>0.7</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="N6" s="4">
         <f>'19-20'!M86</f>
-        <v>1.93333333333333</v>
+        <v>1.925</v>
       </c>
       <c r="O6" s="4">
         <f>M6/N6*100</f>
-        <v>36.2068965517241</v>
+        <v>37.662337662337656</v>
       </c>
       <c r="P6" s="4">
         <f>'19-20'!N86</f>
-        <v>4.33333333333333</v>
+        <v>4.375</v>
       </c>
       <c r="Q6" s="4">
         <f>'19-20'!O86</f>
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="R6" s="4">
         <f>P6/Q6*100</f>
-        <v>92.8571428571428</v>
+        <v>93.085106382978722</v>
       </c>
       <c r="S6" s="4">
         <f>'19-20'!P86</f>
-        <v>2.76666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="T6" s="4">
         <f>'19-20'!Q86</f>
-        <v>3.63333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="U6" t="s">
         <v>24</v>
@@ -3066,7 +2602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="1:20">
       <c r="B41" t="s">
         <v>1</v>
       </c>
@@ -3131,79 +2667,79 @@
       </c>
       <c r="B42" s="4">
         <f>Totals!B42/Totals!S42</f>
-        <v>35.9175257731959</v>
+        <v>36.014705882352942</v>
       </c>
       <c r="C42" s="4">
         <f>Totals!C42/Totals!S42</f>
-        <v>21.4226804123711</v>
+        <v>21.544117647058822</v>
       </c>
       <c r="D42" s="4">
         <f>Totals!D42/Totals!S42</f>
-        <v>7.02061855670103</v>
+        <v>4.6372549019607847</v>
       </c>
       <c r="E42" s="4">
         <f>Totals!E42/Totals!S42</f>
-        <v>11.8711340206186</v>
+        <v>14.323529411764707</v>
       </c>
       <c r="F42" s="4">
         <f>Totals!F42/Totals!S42</f>
-        <v>18.8917525773196</v>
+        <v>18.96078431372549</v>
       </c>
       <c r="G42" s="4">
         <f>Totals!G42/Totals!S42</f>
-        <v>6.92783505154639</v>
+        <v>6.9607843137254903</v>
       </c>
       <c r="H42" s="4">
         <f>Totals!H42/Totals!S42</f>
-        <v>3</v>
+        <v>3.0196078431372548</v>
       </c>
       <c r="I42" s="4">
         <f>Totals!I42/Totals!S42</f>
-        <v>0.989690721649485</v>
+        <v>0.97549019607843135</v>
       </c>
       <c r="J42" s="4">
         <f>Totals!J42/Totals!S42</f>
-        <v>8.24226804123711</v>
+        <v>8.2941176470588243</v>
       </c>
       <c r="K42" s="4">
         <f>Totals!K42/Totals!S42</f>
-        <v>14.3453608247423</v>
+        <v>14.382352941176471</v>
       </c>
       <c r="L42" s="4">
         <f>J42/K42*100</f>
-        <v>57.4559827524254</v>
+        <v>57.668711656441715</v>
       </c>
       <c r="M42" s="4">
         <f>Totals!L42/Totals!S42</f>
-        <v>0.639175257731959</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="N42" s="4">
         <f>Totals!M42/Totals!S42</f>
-        <v>1.88659793814433</v>
+        <v>1.8872549019607843</v>
       </c>
       <c r="O42" s="4">
         <f>M42/N42*100</f>
-        <v>33.879781420765</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="P42" s="4">
         <f>Totals!N42/Totals!S42</f>
-        <v>4.29896907216495</v>
+        <v>4.3088235294117645</v>
       </c>
       <c r="Q42" s="4">
         <f>Totals!O42/Totals!S42</f>
-        <v>4.93298969072165</v>
+        <v>4.9264705882352944</v>
       </c>
       <c r="R42" s="4">
         <f>P42/Q42*100</f>
-        <v>87.1473354231975</v>
+        <v>87.46268656716417</v>
       </c>
       <c r="S42" s="4">
         <f>Totals!P42/Totals!S42</f>
-        <v>2.88144329896907</v>
+        <v>2.9117647058823528</v>
       </c>
       <c r="T42" s="4">
         <f>Totals!Q42/Totals!S42</f>
-        <v>3.18041237113402</v>
+        <v>3.2058823529411766</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -3212,115 +2748,113 @@
       </c>
       <c r="B43" s="4">
         <f>Totals!B43/Totals!S43</f>
-        <v>39.2820512820513</v>
+        <v>39.282051282051285</v>
       </c>
       <c r="C43" s="4">
         <f>Totals!C43/Totals!S43</f>
-        <v>26.3076923076923</v>
+        <v>26.307692307692307</v>
       </c>
       <c r="D43" s="4">
         <f>Totals!D43/Totals!S43</f>
-        <v>5.23076923076923</v>
+        <v>5.2307692307692308</v>
       </c>
       <c r="E43" s="4">
         <f>Totals!E43/Totals!S43</f>
-        <v>16.7179487179487</v>
+        <v>16.717948717948719</v>
       </c>
       <c r="F43" s="4">
         <f>Totals!F43/Totals!S43</f>
-        <v>21.9487179487179</v>
+        <v>21.948717948717949</v>
       </c>
       <c r="G43" s="4">
         <f>Totals!G43/Totals!S43</f>
-        <v>8.64102564102564</v>
+        <v>8.6410256410256405</v>
       </c>
       <c r="H43" s="4">
         <f>Totals!H43/Totals!S43</f>
-        <v>4.30769230769231</v>
+        <v>4.3076923076923075</v>
       </c>
       <c r="I43" s="4">
         <f>Totals!I43/Totals!S43</f>
-        <v>0.871794871794872</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="J43" s="4">
         <f>Totals!J43/Totals!S43</f>
-        <v>10.4102564102564</v>
+        <v>10.410256410256411</v>
       </c>
       <c r="K43" s="4">
         <f>Totals!K43/Totals!S43</f>
-        <v>17.3076923076923</v>
+        <v>17.307692307692307</v>
       </c>
       <c r="L43" s="4">
         <f>J43/K43*100</f>
-        <v>60.1481481481482</v>
+        <v>60.148148148148152</v>
       </c>
       <c r="M43" s="4">
         <f>Totals!L43/Totals!S43</f>
-        <v>0.743589743589744</v>
+        <v>0.74358974358974361</v>
       </c>
       <c r="N43" s="4">
         <f>Totals!M43/Totals!S43</f>
-        <v>1.87179487179487</v>
+        <v>1.8717948717948718</v>
       </c>
       <c r="O43" s="4">
         <f>M43/N43*100</f>
-        <v>39.7260273972603</v>
+        <v>39.726027397260275</v>
       </c>
       <c r="P43" s="4">
         <f>Totals!N43/Totals!S43</f>
-        <v>4.74358974358974</v>
+        <v>4.7435897435897436</v>
       </c>
       <c r="Q43" s="4">
         <f>Totals!O43/Totals!S43</f>
-        <v>5.20512820512821</v>
+        <v>5.2051282051282053</v>
       </c>
       <c r="R43" s="4">
         <f>P43/Q43*100</f>
-        <v>91.1330049261084</v>
+        <v>91.13300492610837</v>
       </c>
       <c r="S43" s="4">
         <f>Totals!P43/Totals!S43</f>
-        <v>2.76923076923077</v>
+        <v>2.7692307692307692</v>
       </c>
       <c r="T43" s="4">
         <f>Totals!Q43/Totals!S43</f>
-        <v>4.28205128205128</v>
+        <v>4.2820512820512819</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U7">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:U7" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular"/>
-    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff"/>
-    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular"/>
-    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff"/>
-    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular"/>
-    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff"/>
+    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="10.2833333333333" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="15" width="10.7083333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -3391,11 +2925,11 @@
       </c>
       <c r="E2" s="8">
         <f>Totals!C2/(2*(Totals!K2+0.44*Totals!O2))*100</f>
-        <v>60.6898266824808</v>
+        <v>60.689826682480771</v>
       </c>
       <c r="F2" s="8">
         <f>(Totals!J2+0.5*Totals!L2)/Totals!K2*100</f>
-        <v>54.5814479638009</v>
+        <v>54.581447963800898</v>
       </c>
       <c r="G2" s="7">
         <v>28.7</v>
@@ -3422,7 +2956,7 @@
         <v>13.7</v>
       </c>
       <c r="O2" s="7">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="P2" s="7">
         <v>97.1</v>
@@ -3447,14 +2981,14 @@
       </c>
       <c r="E3" s="8">
         <f>Totals!C3/(2*(Totals!K3+0.44*Totals!O3))*100</f>
-        <v>69.0009741313995</v>
+        <v>69.000974131399502</v>
       </c>
       <c r="F3" s="8">
         <f>(Totals!J3+0.5*Totals!L3)/Totals!K3*100</f>
-        <v>63.8095238095238</v>
+        <v>63.809523809523803</v>
       </c>
       <c r="G3" s="9">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H3" s="9">
         <v>8.9</v>
@@ -3469,7 +3003,7 @@
         <v>12.8</v>
       </c>
       <c r="L3" s="9">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9">
@@ -3491,7 +3025,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="9">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C4" s="9">
         <v>48.5</v>
@@ -3501,11 +3035,11 @@
       </c>
       <c r="E4" s="8">
         <f>Totals!C4/(2*(Totals!K4+0.44*Totals!O4))*100</f>
-        <v>66.6870042708969</v>
+        <v>66.687004270896892</v>
       </c>
       <c r="F4" s="8">
         <f>(Totals!J4+0.5*Totals!L4)/Totals!K4*100</f>
-        <v>61.970853573907</v>
+        <v>61.970853573907014</v>
       </c>
       <c r="G4" s="9">
         <v>25.2</v>
@@ -3557,17 +3091,17 @@
       </c>
       <c r="E5" s="8">
         <f>Totals!C5/(2*(Totals!K5+0.44*Totals!O5))*100</f>
-        <v>65.3561657716081</v>
+        <v>65.356165771608062</v>
       </c>
       <c r="F5" s="8">
         <f>(Totals!J5+0.5*Totals!L5)/Totals!K5*100</f>
-        <v>60.9722222222222</v>
+        <v>60.972222222222229</v>
       </c>
       <c r="G5" s="9">
         <v>22.3</v>
       </c>
       <c r="H5" s="9">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I5" s="9">
         <v>4.2</v>
@@ -3579,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="9">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="M5" s="9">
         <v>1.3</v>
@@ -3603,51 +3137,51 @@
         <v>28</v>
       </c>
       <c r="B6" s="12">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="C6" s="12">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="D6" s="12">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E6" s="8">
         <f>Totals!C6/(2*(Totals!K6+0.44*Totals!O6))*100</f>
-        <v>67.4557351809084</v>
+        <v>67.946567975481415</v>
       </c>
       <c r="F6" s="8">
         <f>(Totals!J6+0.5*Totals!L6)/Totals!K6*100</f>
-        <v>62.3362445414847</v>
+        <v>62.807881773399011</v>
       </c>
       <c r="G6" s="12">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="H6" s="12">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="I6" s="12">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="12">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="K6" s="12">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="L6" s="12">
-        <v>12.4</v>
+        <v>17</v>
       </c>
       <c r="M6" s="12">
         <v>1.4</v>
       </c>
       <c r="N6" s="12">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="O6" s="12">
-        <v>37.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="P6" s="12">
-        <v>96</v>
+        <v>96.6</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f>Totals!W6</f>
@@ -3679,41 +3213,39 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q7">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q7" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular"/>
-    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff"/>
-    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular"/>
-    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff"/>
-    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular"/>
-    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff"/>
+    <hyperlink ref="A2" location="'17-18'!A1" display="17-18Regular" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" location="'17-18'!A96" display="17-18Playoff" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" location="'18-19'!A1" display="18-19Regular" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" location="'18-19'!A96" display="18-19Playoff" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" location="'19-20'!A1" display="19-20Regular" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A7" location="'19-20'!A96" display="19-20Playoff" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114:G119"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.5666666666667" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -10166,7 +9698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -10247,33 +9779,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:26">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="2">
         <f>AVERAGE(B3:B84)</f>
-        <v>31.8292682926829</v>
+        <v>31.829268292682926</v>
       </c>
       <c r="C86" s="2">
         <f>J86*2+L86+N86</f>
-        <v>15.4756097560976</v>
+        <v>15.475609756097562</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" ref="D86:R86" si="1">AVERAGE(D3:D84)</f>
-        <v>4.52439024390244</v>
+        <v>4.524390243902439</v>
       </c>
       <c r="E86" s="2">
         <f>F86-D86</f>
-        <v>12.4146341463415</v>
+        <v>12.414634146341463</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="1"/>
-        <v>16.9390243902439</v>
+        <v>16.939024390243901</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="1"/>
-        <v>6.23170731707317</v>
+        <v>6.2317073170731705</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="1"/>
@@ -10281,53 +9813,53 @@
       </c>
       <c r="I86" s="2">
         <f t="shared" si="1"/>
-        <v>0.780487804878049</v>
+        <v>0.78048780487804881</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="1"/>
-        <v>5.69512195121951</v>
+        <v>5.6951219512195124</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="1"/>
-        <v>10.780487804878</v>
+        <v>10.780487804878049</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="1"/>
-        <v>0.378048780487805</v>
+        <v>0.37804878048780488</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="1"/>
-        <v>1.45121951219512</v>
+        <v>1.4512195121951219</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="1"/>
-        <v>3.70731707317073</v>
+        <v>3.7073170731707319</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="1"/>
-        <v>4.47560975609756</v>
+        <v>4.475609756097561</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="1"/>
-        <v>2.70731707317073</v>
+        <v>2.7073170731707319</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="1"/>
-        <v>2.98780487804878</v>
+        <v>2.9878048780487805</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="1"/>
-        <v>11.8170731707317</v>
+        <v>11.817073170731707</v>
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
       <c r="Y86" s="2">
         <f>AVERAGE(Y3:Y84)</f>
-        <v>14.2682926829268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
+        <v>14.268292682926829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
@@ -10391,7 +9923,7 @@
       </c>
       <c r="V87" s="1"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:26">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -10455,7 +9987,7 @@
       </c>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:26">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -10522,11 +10054,11 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:26">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -10543,7 +10075,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:26">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -10566,7 +10098,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:26">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -10580,7 +10112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:26">
       <c r="A94" s="1" t="s">
         <v>42</v>
       </c>
@@ -10600,7 +10132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -10608,7 +10140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -10616,7 +10148,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -12179,7 +11711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:25">
       <c r="A120" s="1" t="s">
         <v>107</v>
       </c>
@@ -12256,7 +11788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:25">
       <c r="A121" s="1" t="s">
         <v>108</v>
       </c>
@@ -12322,51 +11854,49 @@
       </c>
       <c r="Q121" s="4">
         <f t="shared" si="6"/>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R121" s="4">
         <f t="shared" si="6"/>
         <v>11.3</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z89">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <autoFilter ref="A2:Z89" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G61" workbookViewId="0">
-      <selection activeCell="N90" sqref="N90"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="25" max="25" width="12.625"/>
+    <col min="25" max="25" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -18917,7 +18447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -18998,77 +18528,77 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:26">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="2">
         <f>AVERAGE(B3:B84)</f>
-        <v>38.7560975609756</v>
+        <v>38.756097560975611</v>
       </c>
       <c r="C86" s="2">
         <f>AVERAGE(C3:C84)</f>
-        <v>26.6585365853659</v>
+        <v>26.658536585365855</v>
       </c>
       <c r="D86" s="2">
         <f>AVERAGE(D3:D84)</f>
-        <v>4.92682926829268</v>
+        <v>4.9268292682926829</v>
       </c>
       <c r="E86" s="2">
         <f>AVERAGE(E3:E84)</f>
-        <v>15.2560975609756</v>
+        <v>15.25609756097561</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" ref="F86:R86" si="5">AVERAGE(F3:F84)</f>
-        <v>20.1829268292683</v>
+        <v>20.182926829268293</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="5"/>
-        <v>7.76829268292683</v>
+        <v>7.7682926829268295</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="5"/>
-        <v>3.53658536585366</v>
+        <v>3.5365853658536586</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="5"/>
-        <v>1.19512195121951</v>
+        <v>1.1951219512195121</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="5"/>
-        <v>10.4512195121951</v>
+        <v>10.451219512195122</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="5"/>
-        <v>17.5731707317073</v>
+        <v>17.573170731707318</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="5"/>
-        <v>0.878048780487805</v>
+        <v>0.87804878048780488</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="5"/>
-        <v>2.30487804878049</v>
+        <v>2.3048780487804876</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="5"/>
-        <v>4.8780487804878</v>
+        <v>4.8780487804878048</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="5"/>
-        <v>5.48780487804878</v>
+        <v>5.4878048780487809</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="5"/>
-        <v>3.09756097560976</v>
+        <v>3.0975609756097562</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="5"/>
-        <v>3.20731707317073</v>
+        <v>3.2073170731707319</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="5"/>
-        <v>11.5243902439024</v>
+        <v>11.524390243902438</v>
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -19076,10 +18606,10 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="2">
         <f>AVERAGE(Y3:Y84)</f>
-        <v>13.609756097561</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+        <v>13.609756097560975</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
@@ -19146,7 +18676,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:26">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -19213,7 +18743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:26">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -19282,11 +18812,11 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:26">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
         <v>111</v>
       </c>
@@ -19297,7 +18827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:26">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -19342,7 +18872,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:26">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -19359,7 +18889,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -19367,7 +18897,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -19375,7 +18905,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -20926,7 +20456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -21009,15 +20539,15 @@
       </c>
       <c r="B119" s="4">
         <f>AVERAGE(B99:B117)</f>
-        <v>40.1052631578947</v>
+        <v>40.10526315789474</v>
       </c>
       <c r="C119" s="4">
         <f t="shared" ref="C119:R119" si="10">AVERAGE(C99:C117)</f>
-        <v>27.1578947368421</v>
+        <v>27.157894736842106</v>
       </c>
       <c r="D119" s="4">
         <f t="shared" si="10"/>
-        <v>4.52631578947368</v>
+        <v>4.5263157894736841</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="10"/>
@@ -21025,51 +20555,51 @@
       </c>
       <c r="F119" s="4">
         <f t="shared" si="10"/>
-        <v>22.5263157894737</v>
+        <v>22.526315789473685</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="10"/>
-        <v>7.05263157894737</v>
+        <v>7.0526315789473681</v>
       </c>
       <c r="H119" s="4">
         <f t="shared" si="10"/>
-        <v>5.21052631578947</v>
+        <v>5.2105263157894735</v>
       </c>
       <c r="I119" s="4">
         <f t="shared" si="10"/>
-        <v>1.05263157894737</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="J119" s="4">
         <f t="shared" si="10"/>
-        <v>11.2105263157895</v>
+        <v>11.210526315789474</v>
       </c>
       <c r="K119" s="4">
         <f t="shared" si="10"/>
-        <v>18.9473684210526</v>
+        <v>18.94736842105263</v>
       </c>
       <c r="L119" s="4">
         <f t="shared" si="10"/>
-        <v>0.684210526315789</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="M119" s="4">
         <f t="shared" si="10"/>
-        <v>1.84210526315789</v>
+        <v>1.8421052631578947</v>
       </c>
       <c r="N119" s="4">
         <f t="shared" si="10"/>
-        <v>4.05263157894737</v>
+        <v>4.0526315789473681</v>
       </c>
       <c r="O119" s="4">
         <f t="shared" si="10"/>
-        <v>4.15789473684211</v>
+        <v>4.1578947368421053</v>
       </c>
       <c r="P119" s="4">
         <f t="shared" si="10"/>
-        <v>2.78947368421053</v>
+        <v>2.7894736842105261</v>
       </c>
       <c r="Q119" s="4">
         <f t="shared" si="10"/>
-        <v>4.15789473684211</v>
+        <v>4.1578947368421053</v>
       </c>
       <c r="R119" s="4">
         <f t="shared" si="10"/>
@@ -21077,46 +20607,44 @@
       </c>
       <c r="Y119" s="4">
         <f>AVERAGE(Y99:Y117)</f>
-        <v>13.4210526315789</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>13.421052631578947</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z89">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <autoFilter ref="A2:Z89" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -22078,7 +21606,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -22321,7 +21849,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -22571,11 +22099,11 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3">
         <v>18</v>
@@ -22587,7 +22115,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>5</v>
@@ -22652,11 +22180,11 @@
         <v>38</v>
       </c>
       <c r="D21" s="3">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3">
         <v>21</v>
@@ -22733,11 +22261,11 @@
         <v>26</v>
       </c>
       <c r="D22" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3">
         <v>18</v>
@@ -22814,11 +22342,11 @@
         <v>14</v>
       </c>
       <c r="D23" s="3">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="F23" s="3">
         <v>26</v>
@@ -22895,11 +22423,11 @@
         <v>29</v>
       </c>
       <c r="D24" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>17</v>
       </c>
       <c r="F24" s="3">
         <v>19</v>
@@ -22978,11 +22506,11 @@
         <v>18</v>
       </c>
       <c r="D25" s="3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>-25</v>
+        <v>10</v>
       </c>
       <c r="F25" s="3">
         <v>14</v>
@@ -23061,11 +22589,11 @@
         <v>24</v>
       </c>
       <c r="D26" s="3">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="F26" s="3">
         <v>20</v>
@@ -23142,11 +22670,11 @@
         <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="F27" s="3">
         <v>21</v>
@@ -23225,11 +22753,11 @@
         <v>21</v>
       </c>
       <c r="D28" s="3">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>-9</v>
+        <v>20</v>
       </c>
       <c r="F28" s="3">
         <v>24</v>
@@ -23308,11 +22836,11 @@
         <v>26</v>
       </c>
       <c r="D29" s="3">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -23389,11 +22917,11 @@
         <v>24</v>
       </c>
       <c r="D30" s="3">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="3">
         <v>22</v>
@@ -23470,11 +22998,11 @@
         <v>27</v>
       </c>
       <c r="D31" s="3">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3">
         <v>17</v>
@@ -23544,18 +23072,18 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="D32" s="3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="3">
         <v>25</v>
@@ -23624,21 +23152,78 @@
       <c r="A33">
         <v>31</v>
       </c>
+      <c r="B33" s="3">
+        <v>46</v>
+      </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F33" s="3">
+        <v>23</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <v>9</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>11</v>
+      </c>
+      <c r="K33" s="3">
+        <v>18</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>6</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-7</v>
+      </c>
+      <c r="S33" s="3">
+        <v>47</v>
+      </c>
+      <c r="T33" s="3">
+        <v>3</v>
       </c>
       <c r="U33" t="s">
         <v>24</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="X33" s="3" t="str">
         <f t="shared" ref="X33:X64" si="3">IF(Y33&gt;0,"W","L")</f>
         <v>L</v>
       </c>
+      <c r="Y33" s="3">
+        <v>-7</v>
+      </c>
       <c r="Z33">
         <v>12</v>
       </c>
@@ -23647,20 +23232,80 @@
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34" s="3">
+        <v>34</v>
+      </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>17</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>8</v>
+      </c>
+      <c r="K34" s="3">
+        <v>16</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>4</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>6</v>
+      </c>
+      <c r="R34" s="3">
+        <v>-6</v>
+      </c>
+      <c r="S34" s="3">
+        <v>32</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
       </c>
       <c r="U34" t="s">
         <v>24</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="X34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>3</v>
       </c>
       <c r="Z34">
         <v>12</v>
@@ -23670,20 +23315,80 @@
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" s="3">
+        <v>43</v>
+      </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F35" s="3">
+        <v>21</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3">
+        <v>14</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
+        <v>34</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1</v>
       </c>
       <c r="U35" t="s">
         <v>24</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="X35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>2</v>
       </c>
       <c r="Z35">
         <v>12</v>
@@ -23693,20 +23398,80 @@
       <c r="A36">
         <v>34</v>
       </c>
+      <c r="B36" s="3">
+        <v>41</v>
+      </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D36" s="3">
+        <v>8</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>28</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8</v>
+      </c>
+      <c r="K36" s="3">
+        <v>14</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <v>6</v>
+      </c>
+      <c r="O36" s="3">
+        <v>6</v>
+      </c>
+      <c r="P36" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>22</v>
+      </c>
+      <c r="S36" s="3">
+        <v>46</v>
+      </c>
+      <c r="T36" s="3">
+        <v>2</v>
       </c>
       <c r="U36" t="s">
         <v>24</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W36" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="X36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
+      </c>
+      <c r="Y36">
+        <v>24</v>
       </c>
       <c r="Z36">
         <v>12</v>
@@ -23716,126 +23481,495 @@
       <c r="A37">
         <v>35</v>
       </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F37" s="3">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>9</v>
+      </c>
+      <c r="K37" s="3">
+        <v>11</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>2</v>
+      </c>
+      <c r="P37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>2</v>
+      </c>
+      <c r="R37" s="3">
+        <v>32</v>
+      </c>
+      <c r="S37" s="3">
+        <v>42</v>
+      </c>
+      <c r="T37" s="3">
+        <v>2</v>
       </c>
       <c r="U37" t="s">
         <v>24</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="X37" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
+        <v>W</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>30</v>
       </c>
       <c r="Z37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>36</v>
       </c>
+      <c r="B38" s="3">
+        <v>22</v>
+      </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>6</v>
+      </c>
+      <c r="R38" s="3">
+        <v>-9</v>
+      </c>
+      <c r="S38" s="3">
+        <v>22</v>
+      </c>
+      <c r="T38" s="3">
+        <v>1</v>
       </c>
       <c r="U38" t="s">
         <v>24</v>
+      </c>
+      <c r="V38" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="X38" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>W</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" s="3">
+        <v>42</v>
+      </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="F39" s="3">
+        <v>21</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>9</v>
+      </c>
+      <c r="K39" s="3">
+        <v>16</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2</v>
+      </c>
+      <c r="M39" s="3">
+        <v>4</v>
+      </c>
+      <c r="N39" s="3">
+        <v>5</v>
+      </c>
+      <c r="O39" s="3">
+        <v>6</v>
+      </c>
+      <c r="P39" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>10</v>
+      </c>
+      <c r="S39" s="3">
+        <v>32</v>
+      </c>
+      <c r="T39" s="3">
+        <v>2</v>
       </c>
       <c r="U39" t="s">
         <v>24</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="X39" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+        <v>W</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>38</v>
       </c>
+      <c r="B40" s="3">
+        <v>42</v>
+      </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F40" s="3">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>16</v>
+      </c>
+      <c r="K40" s="3">
+        <v>18</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2</v>
+      </c>
+      <c r="N40" s="3">
+        <v>7</v>
+      </c>
+      <c r="O40" s="3">
+        <v>8</v>
+      </c>
+      <c r="P40" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>4</v>
+      </c>
+      <c r="R40" s="3">
+        <v>-17</v>
+      </c>
+      <c r="S40" s="3">
+        <v>60</v>
+      </c>
+      <c r="T40" s="3">
+        <v>4</v>
       </c>
       <c r="U40" t="s">
         <v>24</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="X40" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" s="3">
+        <v>-10</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>39</v>
       </c>
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F41" s="3">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11</v>
+      </c>
+      <c r="K41" s="3">
+        <v>20</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3">
+        <v>-21</v>
+      </c>
+      <c r="S41" s="3">
+        <v>46</v>
+      </c>
+      <c r="T41" s="3">
+        <v>4</v>
       </c>
       <c r="U41" t="s">
         <v>24</v>
+      </c>
+      <c r="V41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="X41" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41">
+        <v>-16</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" s="3">
+        <v>37</v>
+      </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F42" s="3">
+        <v>20</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>9</v>
+      </c>
+      <c r="K42" s="3">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>9</v>
+      </c>
+      <c r="O42" s="3">
+        <v>9</v>
+      </c>
+      <c r="P42" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3">
+        <v>50</v>
+      </c>
+      <c r="T42" s="3">
+        <v>4</v>
       </c>
       <c r="U42" t="s">
         <v>24</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="X42" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>L</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+        <v>W</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>41</v>
       </c>
@@ -23849,13 +23983,19 @@
       </c>
       <c r="U43" t="s">
         <v>24</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="X43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Z43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>42</v>
       </c>
@@ -23869,13 +24009,19 @@
       </c>
       <c r="U44" t="s">
         <v>24</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="X44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Z44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>43</v>
       </c>
@@ -23889,13 +24035,19 @@
       </c>
       <c r="U45" t="s">
         <v>24</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="X45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>44</v>
       </c>
@@ -23909,13 +24061,19 @@
       </c>
       <c r="U46" t="s">
         <v>24</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="X46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>45</v>
       </c>
@@ -23929,13 +24087,19 @@
       </c>
       <c r="U47" t="s">
         <v>24</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="X47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Z47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>46</v>
       </c>
@@ -23949,13 +24113,22 @@
       </c>
       <c r="U48" t="s">
         <v>24</v>
+      </c>
+      <c r="V48" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="X48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Z48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>47</v>
       </c>
@@ -23969,13 +24142,22 @@
       </c>
       <c r="U49" t="s">
         <v>24</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="X49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50">
         <v>48</v>
       </c>
@@ -23989,13 +24171,19 @@
       </c>
       <c r="U50" t="s">
         <v>24</v>
+      </c>
+      <c r="W50" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="X50" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Z50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51">
         <v>49</v>
       </c>
@@ -24009,13 +24197,22 @@
       </c>
       <c r="U51" t="s">
         <v>24</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="X51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Z51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52">
         <v>50</v>
       </c>
@@ -24029,13 +24226,22 @@
       </c>
       <c r="U52" t="s">
         <v>24</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="X52" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53">
         <v>51</v>
       </c>
@@ -24049,13 +24255,22 @@
       </c>
       <c r="U53" t="s">
         <v>24</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="X53" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Z53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54">
         <v>52</v>
       </c>
@@ -24069,13 +24284,19 @@
       </c>
       <c r="U54" t="s">
         <v>24</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="X54" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Z54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55">
         <v>53</v>
       </c>
@@ -24089,13 +24310,22 @@
       </c>
       <c r="U55" t="s">
         <v>24</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="X55" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Z55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56">
         <v>54</v>
       </c>
@@ -24109,13 +24339,22 @@
       </c>
       <c r="U56" t="s">
         <v>24</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="X56" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Z56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57">
         <v>55</v>
       </c>
@@ -24129,13 +24368,19 @@
       </c>
       <c r="U57" t="s">
         <v>24</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="X57" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Z57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58">
         <v>56</v>
       </c>
@@ -24149,13 +24394,19 @@
       </c>
       <c r="U58" t="s">
         <v>24</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="X58" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Z58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59">
         <v>57</v>
       </c>
@@ -24169,13 +24420,22 @@
       </c>
       <c r="U59" t="s">
         <v>24</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="X59" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Z59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60">
         <v>58</v>
       </c>
@@ -24189,13 +24449,22 @@
       </c>
       <c r="U60" t="s">
         <v>24</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="X60" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Z60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61">
         <v>59</v>
       </c>
@@ -24209,13 +24478,19 @@
       </c>
       <c r="U61" t="s">
         <v>24</v>
+      </c>
+      <c r="W61" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="X61" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Z61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62">
         <v>60</v>
       </c>
@@ -24229,13 +24504,19 @@
       </c>
       <c r="U62" t="s">
         <v>24</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="X62" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Z62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63">
         <v>61</v>
       </c>
@@ -24249,13 +24530,19 @@
       </c>
       <c r="U63" t="s">
         <v>24</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="X63" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Z63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64">
         <v>62</v>
       </c>
@@ -24269,13 +24556,22 @@
       </c>
       <c r="U64" t="s">
         <v>24</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W64" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="X64" s="3" t="str">
         <f t="shared" si="3"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Z64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65">
         <v>63</v>
       </c>
@@ -24289,13 +24585,19 @@
       </c>
       <c r="U65" t="s">
         <v>24</v>
+      </c>
+      <c r="W65" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="X65" s="3" t="str">
         <f t="shared" ref="X65:X84" si="4">IF(Y65&gt;0,"W","L")</f>
         <v>L</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Z65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66">
         <v>64</v>
       </c>
@@ -24309,13 +24611,22 @@
       </c>
       <c r="U66" t="s">
         <v>24</v>
+      </c>
+      <c r="V66" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="X66" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Z66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67">
         <v>65</v>
       </c>
@@ -24329,13 +24640,22 @@
       </c>
       <c r="U67" t="s">
         <v>24</v>
+      </c>
+      <c r="V67" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W67" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="X67" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Z67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68">
         <v>66</v>
       </c>
@@ -24349,13 +24669,22 @@
       </c>
       <c r="U68" t="s">
         <v>24</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W68" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="X68" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Z68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69">
         <v>67</v>
       </c>
@@ -24369,13 +24698,19 @@
       </c>
       <c r="U69" t="s">
         <v>24</v>
+      </c>
+      <c r="W69" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="X69" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Z69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70">
         <v>68</v>
       </c>
@@ -24389,13 +24724,19 @@
       </c>
       <c r="U70" t="s">
         <v>24</v>
+      </c>
+      <c r="W70" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="X70" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Z70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71">
         <v>69</v>
       </c>
@@ -24409,13 +24750,22 @@
       </c>
       <c r="U71" t="s">
         <v>24</v>
+      </c>
+      <c r="V71" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="X71" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Z71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72">
         <v>70</v>
       </c>
@@ -24429,13 +24779,22 @@
       </c>
       <c r="U72" t="s">
         <v>24</v>
+      </c>
+      <c r="V72" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="X72" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Z72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73">
         <v>71</v>
       </c>
@@ -24449,13 +24808,19 @@
       </c>
       <c r="U73" t="s">
         <v>24</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="X73" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Z73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74">
         <v>72</v>
       </c>
@@ -24469,13 +24834,19 @@
       </c>
       <c r="U74" t="s">
         <v>24</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="X74" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Z74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75">
         <v>73</v>
       </c>
@@ -24489,13 +24860,22 @@
       </c>
       <c r="U75" t="s">
         <v>24</v>
+      </c>
+      <c r="V75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="X75" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Z75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76">
         <v>74</v>
       </c>
@@ -24509,13 +24889,22 @@
       </c>
       <c r="U76" t="s">
         <v>24</v>
+      </c>
+      <c r="V76" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="X76" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Z76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77">
         <v>75</v>
       </c>
@@ -24529,13 +24918,19 @@
       </c>
       <c r="U77" t="s">
         <v>24</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="X77" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Z77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78">
         <v>76</v>
       </c>
@@ -24549,13 +24944,19 @@
       </c>
       <c r="U78" t="s">
         <v>24</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="X78" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Z78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79">
         <v>77</v>
       </c>
@@ -24569,13 +24970,22 @@
       </c>
       <c r="U79" t="s">
         <v>24</v>
+      </c>
+      <c r="V79" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="X79" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Z79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80">
         <v>78</v>
       </c>
@@ -24589,13 +24999,19 @@
       </c>
       <c r="U80" t="s">
         <v>24</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="X80" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Z80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81">
         <v>79</v>
       </c>
@@ -24609,13 +25025,22 @@
       </c>
       <c r="U81" t="s">
         <v>24</v>
+      </c>
+      <c r="V81" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="X81" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Z81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82">
         <v>80</v>
       </c>
@@ -24629,13 +25054,22 @@
       </c>
       <c r="U82" t="s">
         <v>24</v>
+      </c>
+      <c r="V82" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="X82" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Z82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83">
         <v>81</v>
       </c>
@@ -24649,13 +25083,19 @@
       </c>
       <c r="U83" t="s">
         <v>24</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="X83" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Z83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84">
         <v>82</v>
       </c>
@@ -24669,164 +25109,170 @@
       </c>
       <c r="U84" t="s">
         <v>24</v>
+      </c>
+      <c r="W84" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="X84" s="3" t="str">
         <f t="shared" si="4"/>
         <v>L</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Z84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" ref="B85:R85" si="7">SUM(B3:B84)</f>
-        <v>1180</v>
+        <v>1559</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="7"/>
-        <v>701</v>
+        <v>940</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="7"/>
-        <v>587</v>
+        <v>171</v>
       </c>
       <c r="E85" s="1">
         <f t="shared" si="7"/>
-        <v>34</v>
+        <v>653</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="7"/>
-        <v>621</v>
+        <v>824</v>
       </c>
       <c r="G85" s="1">
         <f t="shared" si="7"/>
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="H85" s="1">
         <f t="shared" si="7"/>
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I85" s="1">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J85" s="1">
         <f t="shared" si="7"/>
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="K85" s="1">
         <f t="shared" si="7"/>
-        <v>458</v>
+        <v>609</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M85" s="1">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="N85" s="1">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="O85" s="1">
         <f t="shared" si="7"/>
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="P85" s="1">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="Q85" s="1">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="R85" s="1">
         <f t="shared" si="7"/>
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="T85" s="1">
         <f>SUM(T3:T84)</f>
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="X85">
         <f>COUNTIFS(X3:X84,"=W")</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" ref="B86:R86" si="8">AVERAGE(B3:B84)</f>
-        <v>39.3333333333333</v>
+        <v>38.975000000000001</v>
       </c>
       <c r="C86" s="2">
         <f>J86*2+L86+N86</f>
-        <v>23.3666666666667</v>
+        <v>23.5</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="8"/>
-        <v>19.5666666666667</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="E86" s="2">
         <f>F86-D86</f>
-        <v>1.13333333333333</v>
+        <v>16.325000000000003</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="8"/>
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" si="8"/>
-        <v>6.53333333333333</v>
+        <v>6.8</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" si="8"/>
-        <v>4.26666666666667</v>
+        <v>4.05</v>
       </c>
       <c r="I86" s="2">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="J86" s="2">
         <f t="shared" si="8"/>
-        <v>9.16666666666667</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K86" s="2">
         <f t="shared" si="8"/>
-        <v>15.2666666666667</v>
+        <v>15.225</v>
       </c>
       <c r="L86" s="2">
         <f t="shared" si="8"/>
-        <v>0.7</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="M86" s="2">
         <f t="shared" si="8"/>
-        <v>1.93333333333333</v>
+        <v>1.925</v>
       </c>
       <c r="N86" s="2">
         <f t="shared" si="8"/>
-        <v>4.33333333333333</v>
+        <v>4.375</v>
       </c>
       <c r="O86" s="2">
         <f t="shared" si="8"/>
-        <v>4.66666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="P86" s="2">
         <f t="shared" si="8"/>
-        <v>2.76666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="8"/>
-        <v>3.63333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="8"/>
-        <v>9.76666666666667</v>
+        <v>7.6</v>
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -24836,16 +25282,16 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="2">
         <f>AVERAGE(Y3:Y84)</f>
-        <v>9.66666666666667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>8.4749999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:26">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -24855,11 +25301,11 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="9"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="9"/>
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1">
         <f t="shared" si="9"/>
@@ -24912,17 +25358,17 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:26">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:26">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
@@ -24936,24 +25382,33 @@
       <c r="G91" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="I91" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
         <v>124</v>
       </c>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
         <v>127</v>
       </c>
@@ -25032,22 +25487,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:25">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:25">
       <c r="A99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:25">
       <c r="A100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -25063,32 +25518,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z88">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <autoFilter ref="A2:Z88" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z126"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="T98" sqref="T98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.8583333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.7083333333333" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -25170,7 +25623,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25186,7 +25639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25202,7 +25655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25218,7 +25671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>4</v>
       </c>
@@ -25234,7 +25687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25250,7 +25703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25266,7 +25719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>7</v>
       </c>
@@ -25282,7 +25735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>8</v>
       </c>
@@ -25298,7 +25751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>9</v>
       </c>
@@ -25314,7 +25767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10</v>
       </c>
@@ -25330,7 +25783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
@@ -25346,7 +25799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>12</v>
       </c>
@@ -25362,7 +25815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>13</v>
       </c>
@@ -25378,7 +25831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>14</v>
       </c>
@@ -26418,7 +26871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -26434,7 +26887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -26450,7 +26903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -26466,7 +26919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -26482,7 +26935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
@@ -26646,13 +27099,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
         <v>110</v>
       </c>
@@ -26719,39 +27172,39 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>127</v>
       </c>
@@ -26830,22 +27283,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:25">
       <c r="A98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:25">
       <c r="A99">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:25">
       <c r="A100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -26861,10 +27314,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Z88">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <autoFilter ref="A2:Z88" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>